--- a/Jogos_do_Dia/2023-04-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H2" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="N2" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
         <v>1.04</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1093,10 +1093,10 @@
         <v>2.8</v>
       </c>
       <c r="M6" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="O6" t="n">
         <v>1.48</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>7.51</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         <v>2.4</v>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="I19" t="n">
         <v>1.05</v>
@@ -2523,10 +2523,10 @@
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N19" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G20" t="n">
         <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
         <v>1.04</v>
@@ -2633,10 +2633,10 @@
         <v>3.8</v>
       </c>
       <c r="M20" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="N20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="G24" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="H24" t="n">
-        <v>3.48</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,10 +3073,10 @@
         <v>3.3</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N24" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3118,10 +3118,10 @@
         <v>1.53</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AD24" t="n">
         <v>1.32</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="G25" t="n">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
       <c r="H25" t="n">
-        <v>2.46</v>
+        <v>2.25</v>
       </c>
       <c r="I25" t="n">
         <v>1.03</v>
@@ -3183,10 +3183,10 @@
         <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="N25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.29</v>
@@ -3225,19 +3225,19 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AC25" t="n">
         <v>1.85</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF25" t="n">
         <v>1.27</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4937,16 +4937,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="L41" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="M41" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="O41" t="n">
         <v>1.57</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H48" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
         <v>1.06</v>
@@ -5713,10 +5713,10 @@
         <v>2.9</v>
       </c>
       <c r="M48" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="N48" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="O48" t="n">
         <v>1.48</v>
@@ -5755,13 +5755,13 @@
         <v>2.68</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AD48" t="n">
         <v>1.25</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="H54" t="n">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="I54" t="n">
         <v>1.08</v>
@@ -6373,10 +6373,10 @@
         <v>2.7</v>
       </c>
       <c r="M54" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="N54" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="O54" t="n">
         <v>1.51</v>
@@ -6415,28 +6415,28 @@
         <v>2.91</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="55">
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="G55" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="H55" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I55" t="n">
         <v>1.08</v>
@@ -6477,10 +6477,10 @@
         <v>7</v>
       </c>
       <c r="K55" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="L55" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="M55" t="n">
         <v>2.45</v>
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G56" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="H56" t="n">
-        <v>5.75</v>
+        <v>6.4</v>
       </c>
       <c r="I56" t="n">
         <v>1.07</v>
@@ -6593,10 +6593,10 @@
         <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N56" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O56" t="n">
         <v>1.42</v>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="F58" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G58" t="n">
         <v>3.2</v>
       </c>
-      <c r="G58" t="n">
-        <v>3.1</v>
-      </c>
       <c r="H58" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="I58" t="n">
         <v>1.08</v>
@@ -6813,10 +6813,10 @@
         <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N58" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O58" t="n">
         <v>1.47</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H59" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I59" t="n">
         <v>1.07</v>
@@ -6923,10 +6923,10 @@
         <v>2.8</v>
       </c>
       <c r="M59" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="N59" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O59" t="n">
         <v>1.5</v>
@@ -7122,43 +7122,43 @@
         </is>
       </c>
       <c r="F61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q61" t="n">
         <v>1.83</v>
       </c>
-      <c r="G61" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="N61" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-04-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH64"/>
+  <dimension ref="A1:AH63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="G2" t="n">
         <v>3.15</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="N2" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
         <v>1.04</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>2.55</v>
@@ -1093,10 +1093,10 @@
         <v>2.8</v>
       </c>
       <c r="M6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O6" t="n">
         <v>1.48</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="H8" t="n">
-        <v>7.51</v>
+        <v>10.5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="I11" t="n">
         <v>1.1</v>
@@ -1637,10 +1637,10 @@
         <v>7.35</v>
       </c>
       <c r="K11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L11" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="M11" t="n">
         <v>2.55</v>
@@ -1706,7 +1706,7 @@
         <v>4.1</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G12" t="n">
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="N12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="G13" t="n">
         <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="N13" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1875,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1905,22 +1905,22 @@
         <v>3.05</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="N14" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2062,14 +2062,14 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.25</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="N15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1.8</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.72</v>
-      </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="n">
         <v>1.2</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="N17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="G19" t="n">
         <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I19" t="n">
         <v>1.05</v>
@@ -2523,10 +2523,10 @@
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="N19" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="I20" t="n">
         <v>1.04</v>
@@ -2633,10 +2633,10 @@
         <v>3.8</v>
       </c>
       <c r="M20" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N20" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -2684,7 +2684,7 @@
         <v>3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE20" t="n">
         <v>1.33</v>
@@ -2835,10 +2835,10 @@
         <v>2.2</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N22" t="n">
         <v>1.67</v>
@@ -2904,19 +2904,19 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="G24" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>4.35</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,10 +3073,10 @@
         <v>3.3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="N24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="G25" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H25" t="n">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="I25" t="n">
         <v>1.03</v>
@@ -3183,10 +3183,10 @@
         <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="N25" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O25" t="n">
         <v>1.29</v>
@@ -3293,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N26" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
         <v>2.15</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="I28" t="n">
         <v>1.06</v>
@@ -3513,10 +3513,10 @@
         <v>3.4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="N28" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -3564,10 +3564,10 @@
         <v>1.59</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AF28" t="n">
         <v>2.25</v>
@@ -3605,10 +3605,10 @@
         <v>1.57</v>
       </c>
       <c r="G29" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
         <v>1.04</v>
@@ -3623,10 +3623,10 @@
         <v>3.43</v>
       </c>
       <c r="M29" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="N29" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O29" t="n">
         <v>1.38</v>
@@ -3674,10 +3674,10 @@
         <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF29" t="n">
         <v>2.05</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="G30" t="n">
         <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="I30" t="n">
         <v>1.08</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3843,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -4042,52 +4042,52 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V33" t="n">
         <v>1.22</v>
@@ -4152,52 +4152,52 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V34" t="n">
         <v>1.73</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -4283,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -4363,100 +4363,100 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.13</v>
+        <v>1.55</v>
       </c>
       <c r="G36" t="n">
-        <v>3.6</v>
+        <v>4.32</v>
       </c>
       <c r="H36" t="n">
-        <v>2.03</v>
+        <v>4.73</v>
       </c>
       <c r="I36" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="J36" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K36" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="L36" t="n">
-        <v>4.05</v>
+        <v>5.7</v>
       </c>
       <c r="M36" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="N36" t="n">
-        <v>2.2</v>
+        <v>2.51</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R36" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S36" t="n">
-        <v>1.87</v>
+        <v>1.12</v>
       </c>
       <c r="T36" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="U36" t="n">
-        <v>1.28</v>
+        <v>2.4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.8</v>
+        <v>1.13</v>
       </c>
       <c r="W36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y36" t="n">
         <v>1.07</v>
       </c>
-      <c r="X36" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>1.66</v>
-      </c>
       <c r="Z36" t="n">
-        <v>3.43</v>
+        <v>2.51</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.98</v>
+        <v>1.46</v>
       </c>
       <c r="AB36" t="n">
         <v>8.9</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="AD36" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="AG36" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="AH36" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="37">
@@ -4545,13 +4545,13 @@
         <v>2.88</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD37" t="n">
         <v>1.29</v>
@@ -4583,100 +4583,100 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.55</v>
+        <v>3.13</v>
       </c>
       <c r="G38" t="n">
-        <v>4.32</v>
+        <v>3.6</v>
       </c>
       <c r="H38" t="n">
-        <v>4.73</v>
+        <v>2.03</v>
       </c>
       <c r="I38" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J38" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K38" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="L38" t="n">
-        <v>5.7</v>
+        <v>4.05</v>
       </c>
       <c r="M38" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="N38" t="n">
-        <v>2.51</v>
+        <v>2.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P38" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R38" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S38" t="n">
-        <v>1.12</v>
+        <v>1.87</v>
       </c>
       <c r="T38" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="U38" t="n">
-        <v>2.4</v>
+        <v>1.28</v>
       </c>
       <c r="V38" t="n">
-        <v>1.13</v>
+        <v>1.8</v>
       </c>
       <c r="W38" t="n">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="X38" t="n">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.07</v>
+        <v>1.66</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.51</v>
+        <v>3.43</v>
       </c>
       <c r="AA38" t="n">
-        <v>1.46</v>
+        <v>2.98</v>
       </c>
       <c r="AB38" t="n">
         <v>8.9</v>
       </c>
       <c r="AC38" t="n">
-        <v>3.38</v>
+        <v>1.55</v>
       </c>
       <c r="AD38" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="AG38" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="AH38" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="39">
@@ -4812,52 +4812,52 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>5.38</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>5.52</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4922,19 +4922,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="G41" t="n">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="H41" t="n">
-        <v>3.35</v>
+        <v>3.16</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K41" t="n">
         <v>1.55</v>
@@ -4961,13 +4961,13 @@
         <v>1.67</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V41" t="n">
         <v>1.75</v>
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AF41" t="n">
         <v>0</v>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G44" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H44" t="n">
         <v>2.5</v>
@@ -5273,10 +5273,10 @@
         <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O44" t="n">
         <v>1.33</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -5493,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -5603,10 +5603,10 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G48" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="I48" t="n">
         <v>1.06</v>
@@ -5713,10 +5713,10 @@
         <v>2.9</v>
       </c>
       <c r="M48" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N48" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="O48" t="n">
         <v>1.48</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H49" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="I49" t="n">
         <v>1.06</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I51" t="n">
         <v>1.09</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="G52" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
         <v>1.09</v>
@@ -6242,52 +6242,52 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="V53" t="n">
         <v>1.11</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF53" t="n">
         <v>0</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G54" t="n">
-        <v>2.85</v>
+        <v>2.73</v>
       </c>
       <c r="H54" t="n">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="I54" t="n">
         <v>1.08</v>
@@ -6373,10 +6373,10 @@
         <v>2.7</v>
       </c>
       <c r="M54" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="N54" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O54" t="n">
         <v>1.51</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="G55" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I55" t="n">
         <v>1.08</v>
@@ -6483,10 +6483,10 @@
         <v>2.4</v>
       </c>
       <c r="M55" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N55" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="O55" t="n">
         <v>1.57</v>
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="G56" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H56" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="I56" t="n">
         <v>1.07</v>
@@ -6593,10 +6593,10 @@
         <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N56" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O56" t="n">
         <v>1.42</v>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="G58" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H58" t="n">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="I58" t="n">
         <v>1.08</v>
@@ -6813,10 +6813,10 @@
         <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="N58" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="O58" t="n">
         <v>1.47</v>
@@ -6855,13 +6855,13 @@
         <v>2.57</v>
       </c>
       <c r="AA58" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB58" t="n">
         <v>0</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AD58" t="n">
         <v>1.27</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="G59" t="n">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="H59" t="n">
-        <v>4.4</v>
+        <v>4.14</v>
       </c>
       <c r="I59" t="n">
         <v>1.07</v>
@@ -6923,7 +6923,7 @@
         <v>2.8</v>
       </c>
       <c r="M59" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="N59" t="n">
         <v>1.55</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG59" t="n">
         <v>0</v>
@@ -7122,31 +7122,31 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G61" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H61" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O61" t="n">
         <v>1.44</v>
@@ -7161,13 +7161,13 @@
         <v>1.83</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V61" t="n">
         <v>2.33</v>
@@ -7185,13 +7185,13 @@
         <v>3.47</v>
       </c>
       <c r="AA61" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB61" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -7232,52 +7232,52 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V62" t="n">
         <v>1.25</v>
@@ -7426,116 +7426,6 @@
         <v>0</v>
       </c>
       <c r="AH63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Ecuador Primera Categoría Serie B</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>45019.875</v>
-      </c>
-      <c r="C64" t="n">
-        <v>4</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Imbabura SC</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Manta FC</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-04-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH63"/>
+  <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
         <v>3.15</v>
       </c>
       <c r="H2" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="N2" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
         <v>1.02</v>
@@ -745,10 +745,10 @@
         <v>1.65</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
         <v>1.04</v>
@@ -763,10 +763,10 @@
         <v>2.84</v>
       </c>
       <c r="M3" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="N3" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
@@ -805,25 +805,25 @@
         <v>1.41</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AE3" t="n">
         <v>2.1</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="X4" t="n">
         <v>1.92</v>
@@ -1010,10 +1010,10 @@
         <v>1.32</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="X5" t="n">
         <v>1.65</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
         <v>2.55</v>
@@ -1093,10 +1093,10 @@
         <v>2.8</v>
       </c>
       <c r="M6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="N6" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="O6" t="n">
         <v>1.48</v>
@@ -1120,10 +1120,10 @@
         <v>1.45</v>
       </c>
       <c r="V6" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="X6" t="n">
         <v>1.57</v>
@@ -1188,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1203,10 +1203,10 @@
         <v>3.92</v>
       </c>
       <c r="M7" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
@@ -1230,10 +1230,10 @@
         <v>1.13</v>
       </c>
       <c r="V7" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="W7" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="X7" t="n">
         <v>1.29</v>
@@ -1254,7 +1254,7 @@
         <v>1.35</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE7" t="n">
         <v>1.41</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G8" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="N8" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1340,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="W8" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
         <v>1.63</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.99</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M9" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="N9" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1450,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="W9" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="X9" t="n">
         <v>1.35</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G10" t="n">
-        <v>4.08</v>
+        <v>4.33</v>
       </c>
       <c r="H10" t="n">
-        <v>4.12</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="N10" t="n">
-        <v>2.79</v>
+        <v>2.64</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1560,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="W10" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="X10" t="n">
         <v>1.87</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>1.1</v>
@@ -1670,10 +1670,10 @@
         <v>1.44</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="W11" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="X11" t="n">
         <v>1.25</v>
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="M12" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="N12" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V12" t="n">
         <v>1.08</v>
@@ -1795,28 +1795,28 @@
         <v>2.66</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="13">
@@ -1842,37 +1842,37 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H13" t="n">
         <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="M13" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="N13" t="n">
         <v>1.53</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q13" t="n">
         <v>2</v>
@@ -1881,13 +1881,13 @@
         <v>1.73</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V13" t="n">
         <v>2.08</v>
@@ -1905,13 +1905,13 @@
         <v>3.05</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AB13" t="n">
         <v>8.1</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.44</v>
+        <v>2.31</v>
       </c>
       <c r="AD13" t="n">
         <v>1.48</v>
@@ -1923,10 +1923,10 @@
         <v>2.31</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1952,52 +1952,52 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H14" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="M14" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="N14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.8</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V14" t="n">
         <v>2.04</v>
@@ -2015,28 +2015,28 @@
         <v>3.41</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="15">
@@ -2062,37 +2062,37 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="G15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L15" t="n">
         <v>3.1</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="N15" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Q15" t="n">
         <v>1.8</v>
@@ -2101,13 +2101,13 @@
         <v>1.9</v>
       </c>
       <c r="S15" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="T15" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="V15" t="n">
         <v>0.79</v>
@@ -2125,28 +2125,28 @@
         <v>2.54</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2196,7 +2196,7 @@
         <v>2.35</v>
       </c>
       <c r="N16" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -2282,52 +2282,52 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>9.85</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="M17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.95</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>2</v>
@@ -2345,28 +2345,28 @@
         <v>2.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18">
@@ -2398,7 +2398,7 @@
         <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I18" t="n">
         <v>1.05</v>
@@ -2413,10 +2413,10 @@
         <v>3.3</v>
       </c>
       <c r="M18" t="n">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
       <c r="N18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O18" t="n">
         <v>1.4</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
-        <v>2.84</v>
+        <v>2.75</v>
       </c>
       <c r="I19" t="n">
         <v>1.05</v>
@@ -2523,10 +2523,10 @@
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="N19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H20" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="I20" t="n">
         <v>1.04</v>
@@ -2633,10 +2633,10 @@
         <v>3.8</v>
       </c>
       <c r="M20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="N20" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="I21" t="n">
         <v>1.02</v>
@@ -2743,10 +2743,10 @@
         <v>3.32</v>
       </c>
       <c r="M21" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="N21" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -2832,10 +2832,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
@@ -2853,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2895,13 +2895,13 @@
         <v>3.12</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AD22" t="n">
         <v>1.22</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="I23" t="n">
         <v>1.04</v>
@@ -2966,7 +2966,7 @@
         <v>1.7</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.3</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.68</v>
+        <v>2.15</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H24" t="n">
-        <v>4.35</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,10 +3073,10 @@
         <v>3.3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.98</v>
+        <v>2.33</v>
       </c>
       <c r="N24" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="G25" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H25" t="n">
-        <v>2.16</v>
+        <v>2.55</v>
       </c>
       <c r="I25" t="n">
         <v>1.03</v>
@@ -3183,10 +3183,10 @@
         <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="N25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O25" t="n">
         <v>1.29</v>
@@ -3281,43 +3281,43 @@
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M26" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="N26" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R26" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V26" t="n">
         <v>1.26</v>
@@ -3335,28 +3335,28 @@
         <v>2.87</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="27">
@@ -3388,7 +3388,7 @@
         <v>3.6</v>
       </c>
       <c r="H27" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="I27" t="n">
         <v>1.03</v>
@@ -3403,10 +3403,10 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="N27" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O27" t="n">
         <v>1.26</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H28" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I28" t="n">
         <v>1.06</v>
@@ -3513,10 +3513,10 @@
         <v>3.4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="N28" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -3573,10 +3573,10 @@
         <v>2.25</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="29">
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I29" t="n">
         <v>1.04</v>
@@ -3623,10 +3623,10 @@
         <v>3.43</v>
       </c>
       <c r="M29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N29" t="n">
         <v>1.81</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.93</v>
       </c>
       <c r="O29" t="n">
         <v>1.38</v>
@@ -3683,10 +3683,10 @@
         <v>2.05</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="G30" t="n">
         <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="I30" t="n">
         <v>1.08</v>
@@ -3733,10 +3733,10 @@
         <v>2.62</v>
       </c>
       <c r="M30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N30" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O30" t="n">
         <v>1.52</v>
@@ -3822,52 +3822,52 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="G31" t="n">
-        <v>3.81</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="N31" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V31" t="n">
         <v>1</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.78</v>
+        <v>4.3</v>
       </c>
       <c r="G33" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="I33" t="n">
         <v>1.01</v>
@@ -4063,10 +4063,10 @@
         <v>6.25</v>
       </c>
       <c r="M33" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="N33" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O33" t="n">
         <v>1.22</v>
@@ -4117,13 +4117,13 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="G34" t="n">
-        <v>5.08</v>
+        <v>4.4</v>
       </c>
       <c r="H34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
         <v>1.01</v>
@@ -4173,10 +4173,10 @@
         <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="N34" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="O34" t="n">
         <v>1.21</v>
@@ -4227,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AH34" t="n">
         <v>0</v>
@@ -4262,52 +4262,52 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="G35" t="n">
-        <v>3.74</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
         <v>2.2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M35" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="V35" t="n">
         <v>1.38</v>
@@ -4337,13 +4337,13 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
@@ -4363,100 +4363,100 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.55</v>
+        <v>3.13</v>
       </c>
       <c r="G36" t="n">
-        <v>4.32</v>
+        <v>3.6</v>
       </c>
       <c r="H36" t="n">
-        <v>4.73</v>
+        <v>2.03</v>
       </c>
       <c r="I36" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J36" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K36" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="L36" t="n">
-        <v>5.7</v>
+        <v>4.05</v>
       </c>
       <c r="M36" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="N36" t="n">
-        <v>2.51</v>
+        <v>2.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R36" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S36" t="n">
-        <v>1.12</v>
+        <v>1.87</v>
       </c>
       <c r="T36" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="U36" t="n">
-        <v>2.4</v>
+        <v>1.28</v>
       </c>
       <c r="V36" t="n">
-        <v>1.13</v>
+        <v>1.8</v>
       </c>
       <c r="W36" t="n">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="X36" t="n">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.07</v>
+        <v>1.66</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.51</v>
+        <v>3.43</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.46</v>
+        <v>2.98</v>
       </c>
       <c r="AB36" t="n">
         <v>8.9</v>
       </c>
       <c r="AC36" t="n">
-        <v>3.38</v>
+        <v>1.55</v>
       </c>
       <c r="AD36" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="AG36" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="AH36" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="37">
@@ -4583,100 +4583,100 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.13</v>
+        <v>1.55</v>
       </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>4.32</v>
       </c>
       <c r="H38" t="n">
-        <v>2.03</v>
+        <v>4.73</v>
       </c>
       <c r="I38" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="J38" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K38" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="L38" t="n">
-        <v>4.05</v>
+        <v>5.7</v>
       </c>
       <c r="M38" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="N38" t="n">
-        <v>2.2</v>
+        <v>2.51</v>
       </c>
       <c r="O38" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R38" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S38" t="n">
-        <v>1.87</v>
+        <v>1.12</v>
       </c>
       <c r="T38" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="U38" t="n">
-        <v>1.28</v>
+        <v>2.4</v>
       </c>
       <c r="V38" t="n">
-        <v>1.8</v>
+        <v>1.13</v>
       </c>
       <c r="W38" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y38" t="n">
         <v>1.07</v>
       </c>
-      <c r="X38" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>1.66</v>
-      </c>
       <c r="Z38" t="n">
-        <v>3.43</v>
+        <v>2.51</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.98</v>
+        <v>1.46</v>
       </c>
       <c r="AB38" t="n">
         <v>8.9</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.55</v>
+        <v>3.38</v>
       </c>
       <c r="AD38" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="AG38" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="AH38" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="39">
@@ -4812,16 +4812,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5.38</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>5.52</v>
+        <v>5.5</v>
       </c>
       <c r="H40" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J40" t="n">
         <v>29</v>
@@ -4833,10 +4833,10 @@
         <v>7.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="N40" t="n">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="O40" t="n">
         <v>1.16</v>
@@ -4890,10 +4890,10 @@
         <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH40" t="n">
         <v>0</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.12</v>
+        <v>2.55</v>
       </c>
       <c r="G41" t="n">
-        <v>3.06</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
-        <v>3.16</v>
+        <v>2.9</v>
       </c>
       <c r="I41" t="n">
         <v>1.11</v>
@@ -4985,28 +4985,28 @@
         <v>2.12</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AE41" t="n">
         <v>1.98</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="42">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="G42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
         <v>2.25</v>
@@ -5053,10 +5053,10 @@
         <v>3.75</v>
       </c>
       <c r="M42" t="n">
-        <v>1.61</v>
+        <v>1.92</v>
       </c>
       <c r="N42" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="O42" t="n">
         <v>1.33</v>
@@ -5104,7 +5104,7 @@
         <v>1.85</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE42" t="n">
         <v>1.38</v>
@@ -5142,10 +5142,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="G43" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
         <v>2.8</v>
@@ -5163,10 +5163,10 @@
         <v>3.3</v>
       </c>
       <c r="M43" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="N43" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O43" t="n">
         <v>1.44</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="G44" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H44" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="I44" t="n">
         <v>1.02</v>
@@ -5273,10 +5273,10 @@
         <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="N44" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O44" t="n">
         <v>1.33</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
         <v>3.25</v>
       </c>
       <c r="H45" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="I45" t="n">
         <v>1.08</v>
@@ -5383,10 +5383,10 @@
         <v>2.8</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N45" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O45" t="n">
         <v>1.44</v>
@@ -5472,52 +5472,52 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.61</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
         <v>3.2</v>
       </c>
       <c r="H46" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="M46" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="N46" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V46" t="n">
         <v>0.63</v>
@@ -5535,25 +5535,25 @@
         <v>2.62</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH46" t="n">
         <v>0</v>
@@ -5582,52 +5582,52 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.37</v>
+        <v>3.15</v>
       </c>
       <c r="G47" t="n">
-        <v>3.19</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="M47" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="N47" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V47" t="n">
         <v>1.11</v>
@@ -5645,22 +5645,22 @@
         <v>2.73</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AG47" t="n">
         <v>0</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
         <v>1.06</v>
@@ -5713,10 +5713,10 @@
         <v>2.9</v>
       </c>
       <c r="M48" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O48" t="n">
         <v>1.48</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="G49" t="n">
         <v>3.35</v>
       </c>
       <c r="H49" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="I49" t="n">
         <v>1.06</v>
@@ -5823,7 +5823,7 @@
         <v>3.2</v>
       </c>
       <c r="M49" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N49" t="n">
         <v>1.7</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="G50" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="I50" t="n">
         <v>1.07</v>
@@ -5927,16 +5927,16 @@
         <v>6.5</v>
       </c>
       <c r="K50" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="L50" t="n">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="M50" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N50" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O50" t="n">
         <v>1.57</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="G51" t="n">
         <v>3.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I51" t="n">
         <v>1.09</v>
@@ -6043,10 +6043,10 @@
         <v>2.6</v>
       </c>
       <c r="M51" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="N51" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O51" t="n">
         <v>1.5</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I52" t="n">
         <v>1.09</v>
@@ -6153,10 +6153,10 @@
         <v>2.75</v>
       </c>
       <c r="M52" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N52" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O52" t="n">
         <v>1.53</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="G53" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="H53" t="n">
-        <v>3.01</v>
+        <v>2.55</v>
       </c>
       <c r="I53" t="n">
         <v>1.13</v>
@@ -6257,10 +6257,10 @@
         <v>5.5</v>
       </c>
       <c r="K53" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="L53" t="n">
-        <v>2.34</v>
+        <v>2.45</v>
       </c>
       <c r="M53" t="n">
         <v>2.45</v>
@@ -6305,25 +6305,25 @@
         <v>2.11</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AE53" t="n">
         <v>2</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AH53" t="n">
         <v>0</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="G54" t="n">
-        <v>2.73</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="I54" t="n">
         <v>1.08</v>
@@ -6367,16 +6367,16 @@
         <v>7.75</v>
       </c>
       <c r="K54" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="L54" t="n">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="M54" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N54" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O54" t="n">
         <v>1.51</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
         <v>1.08</v>
@@ -6483,10 +6483,10 @@
         <v>2.4</v>
       </c>
       <c r="M55" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N55" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="O55" t="n">
         <v>1.57</v>
@@ -6525,28 +6525,28 @@
         <v>3.14</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="56">
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G56" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H56" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I56" t="n">
         <v>1.07</v>
@@ -6635,25 +6635,25 @@
         <v>2.39</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD56" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AF56" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AG56" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AH56" t="n">
         <v>0</v>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="I58" t="n">
         <v>1.08</v>
@@ -6813,10 +6813,10 @@
         <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="N58" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="O58" t="n">
         <v>1.47</v>
@@ -6858,7 +6858,7 @@
         <v>2.2</v>
       </c>
       <c r="AB58" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC58" t="n">
         <v>1.97</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="G59" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="H59" t="n">
-        <v>4.14</v>
+        <v>4.75</v>
       </c>
       <c r="I59" t="n">
         <v>1.07</v>
@@ -6923,7 +6923,7 @@
         <v>2.8</v>
       </c>
       <c r="M59" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="N59" t="n">
         <v>1.55</v>
@@ -6965,28 +6965,28 @@
         <v>3.17</v>
       </c>
       <c r="AA59" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB59" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AD59" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE59" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF59" t="n">
         <v>1.98</v>
       </c>
       <c r="AG59" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH59" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="60">
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="G61" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
-        <v>3.75</v>
+        <v>3.94</v>
       </c>
       <c r="I61" t="n">
         <v>1.06</v>
@@ -7143,10 +7143,10 @@
         <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="N61" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="O61" t="n">
         <v>1.44</v>
@@ -7194,19 +7194,19 @@
         <v>2.77</v>
       </c>
       <c r="AD61" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE61" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF61" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG61" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -7232,16 +7232,16 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3.11</v>
+        <v>3.3</v>
       </c>
       <c r="G62" t="n">
-        <v>3.06</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J62" t="n">
         <v>9.300000000000001</v>
@@ -7253,10 +7253,10 @@
         <v>2.67</v>
       </c>
       <c r="M62" t="n">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="N62" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="O62" t="n">
         <v>1.46</v>
@@ -7295,25 +7295,25 @@
         <v>2.83</v>
       </c>
       <c r="AA62" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AG62" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH62" t="n">
         <v>0</v>
@@ -7426,6 +7426,116 @@
         <v>0</v>
       </c>
       <c r="AH63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie B</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45019.875</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Imbabura SC</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Manta FC</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
         <v>0</v>
       </c>
     </row>
